--- a/My Apple Portfolio Project.xlsx
+++ b/My Apple Portfolio Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45c80bf5a8fca684/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45c80bf5a8fca684/Desktop/Portwebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{CA46BABD-80A3-477A-BDF6-D531191BA838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C3CF3E-6E97-4365-9304-C0FD0A31F9EB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{CA46BABD-80A3-477A-BDF6-D531191BA838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D8BD771-F844-47FD-BA25-1C2545F4BB57}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27001F22-0875-7341-BE7C-AC3E445F50DD}"/>
   </bookViews>
@@ -373,9 +373,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{FCFDAFD4-E6E0-4166-8FA5-E6A572BA2C57}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="78">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
@@ -397,6 +397,96 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
@@ -7056,6 +7146,600 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[My Apple Portfolio Project.xlsx]Pivot Table!PivotTable7</c:name>
+    <c:fmtId val="21"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$C$159</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pivot Table'!$B$160:$B$185</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>airpod</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ipad</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>iphone</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>iwatch</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>macbook</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$C$160:$C$185</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>469719.60000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945807.20000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2865365.6000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3421838.3000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>947078.90000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1238372.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1736913.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1701364.6000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2808714.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1393971.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2900051.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1607885.5999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>524836.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>773312.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1512576.5000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>721102.20000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3564585.9000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2825454.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2523822.3000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1635074.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF6A-4DBC-BC5D-6B37B7FE7280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="160915728"/>
+        <c:axId val="168629376"/>
+        <c:axId val="1084106368"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="160915728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168629376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168629376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160915728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1084106368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168629376"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -23759,6 +24443,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27199,6 +27923,500 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -31865,16 +33083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31889,7 +33107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="1085851"/>
+          <a:off x="1323975" y="1076326"/>
           <a:ext cx="2009775" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31924,7 +33142,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Profit %</a:t>
+            <a:t>Product % of Profit</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -33731,15 +34949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33754,8 +34972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="819150" y="95249"/>
-          <a:ext cx="10839450" cy="7439026"/>
+          <a:off x="828675" y="95248"/>
+          <a:ext cx="10896600" cy="11191877"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -33794,15 +35012,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33817,8 +35035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="314324"/>
-          <a:ext cx="9858375" cy="9001125"/>
+          <a:off x="1743075" y="95249"/>
+          <a:ext cx="9858375" cy="12534901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -33846,23 +35064,9 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1650" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Data Analysis Report: Apple Sales in 2022</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1650" b="1" i="0">
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -33872,36 +35076,22 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="1" i="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Overview</a:t>
+            <a:t>Overview:</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The purpose of this report is to analyze the sales data for Apple products in 2022. The data was obtained from an Excel file provided by Apple and includes information on the revenue and profit generated by various products.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1650" b="1" i="0">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -33911,7 +35101,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="1" i="0">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -33920,12 +35110,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Key Findings</a:t>
+            <a:t>This project aimed to analyze Apple product profits using the dataset from the year 2022, providing key insights for strategic decision-making. Leveraging data analytics techniques, the primary focus was on understanding profit trends, identifying contributing factors, and visualizing findings through a comprehensive Excel dashboard</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -33934,12 +35122,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The top-selling products in 2022 were Apple's mobile devices, particularly the iPhone. The iPhone generated the most revenue and profit, followed by the iPad and the MacBook.</a:t>
+            <a:t>. </a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -33948,12 +35134,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Surprisingly, the AirPods were also a popular product, generating a significant amount of revenue and profit for the company. This suggests that Apple's push into the wireless earbud market has been successful.</a:t>
+            <a:t>The project unfolded through distinct phases, starting with the acquisition of the 2022 Apple product profits dataset and the meticulous application of cleaning procedures to ensure data accuracy and consistency. Subsequently, Descriptive statistics and visualizations were utilized to identify trends, outliers, and potential areas for deeper examination. The in-depth analysis phase utilized statistical methods to explore profit trends across product lines, geographical regions, and customer segments. Correlation analyses were conducted to pinpoint key drivers influencing profits. The findings were then translated into a comprehensive Excel dashboard featuring visualizations such as line charts for profit trends, pie charts illustrating profit distribution among product lines, and geographical heatmaps highlighting regional profit variations.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -33962,13 +35146,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Accessories, such as the Watch, were less popular and generated less revenue and profit for the company.</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In the final phase, the project culminated in key findings that included the identification of top-performing and underperforming product lines, insights into geographical profit variations, correlations between customer satisfaction scores and product profitability, and opportunities for cost optimization and revenue growth. To guide future actions, strategic recommendations were formulated, addressing areas to optimize product profitability, improve marketing strategies, and enhance overall financial performance. Throughout these phases, adherence to standard procedures for data analytics projects ensured clarity in project objectives, reliable data collection, thorough exploratory and in-depth analyses, effective visualization for stakeholder communication, and comprehensive documentation for knowledge transfer and future reference.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1650" b="1" i="0">
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -33978,64 +35174,43 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="1" i="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Three Questions</a:t>
+            <a:t>Potentia</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>What was the total revenue generated by Apple in 2022?</a:t>
+            <a:t>l Stakeholders: </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Which product category generated the most profit for the company?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Were there any products that were unexpectedly popular in 2022?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1650" b="1" i="0">
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -34045,7 +35220,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="1" i="0">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -34054,12 +35229,57 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Conclusion</a:t>
+            <a:t>Stakeholders for this project include Executive Leadership (for strategic decision-making), Finance Department (for financial planning and budgeting), Marketing Team (for product positioning and promotional strategies), Product Development (for aligning features with profitability), Sales and Distribution (for optimizing sales channels), Data Analytics Team (for project execution), Human Resources (for workforce planning), IT Department (for data security and infrastructure support), Customer Support (for understanding customer satisfaction), and External Stakeholders (investors/shareholders for assessing financial health). Effective communication is essential to ensure that insights from the analysis contribute to decision-making across these diverse departments within the organization.</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1650" b="0" i="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Key Findings:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -34068,14 +35288,369 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Based on the data provided, it can be concluded that Apple's mobile devices, specifically the iPhone, were the top-selling products in 2022, generating the most revenue and profit. The company's computer products, specifically the MacBook, also performed well in terms of sales and profit. Surprisingly, the AirPods were also a popular product, generating a significant amount of revenue and profit for the company. Accessories, such as the Watch, were less popular and generated less revenue and profit for the company. These findings suggest that Apple's strategy of focusing on mobile devices and computer products has been successful in 2022, and that the company's push into the wireless earbud market has also been well-received by consumers.</a:t>
+            <a:t>After analyzing Apple's sales data for 2022, several key findings were identified. Firstly, the company's total profit for the year was $24,055,919. Secondly, the MacBook had the highest profit margins among all Apple products, accounting for 29% of the total profit. Thirdly, the United States was the largest market for Apple products, generating 60% of the total sales revenue. Fourthly, there was a positive correlation between customer ratings and sales revenue, indicating that customer satisfaction is an important driver of sales. Finally, the analysis identified several opportunities for future business strategies, such as increasing investment in international markets and improving customer support services. In</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> terms of revenue, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This data shows the quarterly revenues for each product category and the total revenue for each category across all quarters. MacBook appears to be the highest revenue-generating product category, followed by iPhone, AirPods, iPad, and iWatch. The quarterly breakdown provides insights into the revenue distribution throughout the year for each product category.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1650">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
             <a:solidFill>
-              <a:schemeClr val="bg2"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Final Thoughts: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MacBook Dominance:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>As MacBook contributes significantly to the overall revenue, stakeholders may consider focusing on strategies to enhance MacBook sales further. This could involve targeted marketing campaigns, promotions, or exploring new features to attract customers.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Diversification of iPad Sales:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> While iPad contributes a substantial amount to the revenue, stakeholders might explore ways to diversify and increase sales in the iPad category. Identifying and addressing specific market segments or launching new models could be strategies to consider.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iPhone Stabilization:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Although iPhone revenue is substantial, there are fluctuations across quarters. Stakeholders could investigate reasons for these fluctuations and work towards stabilizing iPhone sales. This might involve analyzing consumer trends, competitor movements, or adjusting product release cycles.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Optimizing iWatch Sales:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>iWatch revenue, while significant, also shows fluctuations. Stakeholders may explore strategies to stabilize and potentially increase iWatch sales. This could involve product enhancements, marketing campaigns, or bundling offers.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Holistic Marketing Strategies:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Implementing holistic marketing strategies that consider the entire product portfolio could be beneficial. Coordinated efforts across different product lines and quarters may lead to a synergistic effect, maximizing overall revenue.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Customer Segment Analysis:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Conducting a detailed analysis of customer segments, including demographics and preferences, may provide insights into tailoring marketing strategies. Understanding what drives sales in each segment can help optimize product offerings.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Global Market Expansion:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assessing opportunities for global market expansion, especially in regions where certain products may have untapped potential, could be explored. This might involve understanding regional preferences and adjusting marketing and distribution strategies accordingly.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Technology Integration:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Exploring opportunities for technology integration and cross-product synergies could enhance overall customer experience. For instance, bundling MacBook and iPhone accessories or exploring ecosystem-related promotions could encourage customers to purchase multiple Apple products.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -35533,6 +37108,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298C0F22-63CB-9AA5-9BCB-DE9172757EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -35770,6 +37381,10 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38393,6 +40008,1219 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEC34647-92F5-4BCB-8AE8-FBBDBF090B65}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="F2:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="17">
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="56">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0902F45C-4FE2-4908-938F-14D72462073B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+  <location ref="B122:C128" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Quantity" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F949C24-0F09-4DC9-A9FC-8731AD45650E}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+  <location ref="B159:C185" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenues" fld="8" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="19">
+    <chartFormat chart="17" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DE0D2D8-D990-4ED0-82DE-6B1F4CDBC130}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B144:C150" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <chartFormats count="20">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{884B2568-7624-4888-AD8C-07EBDF624B32}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B59:C85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -38516,13 +41344,13 @@
     <dataField name="Sum of Quantity" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -38555,7 +41383,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12707319-02A4-4EBC-9D43-F9DD1BC78514}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="B28:C54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -38681,10 +41509,10 @@
     <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -39938,1210 +42766,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEC34647-92F5-4BCB-8AE8-FBBDBF090B65}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="F2:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="17">
-    <chartFormat chart="0" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="42" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="48" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="50" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="51" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="52" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="43" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="44" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="56">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0902F45C-4FE2-4908-938F-14D72462073B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
-  <location ref="B122:C128" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Quantity" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="2" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F949C24-0F09-4DC9-A9FC-8731AD45650E}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
-  <location ref="B159:C185" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Revenues" fld="8" baseField="0" baseItem="0" numFmtId="167"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="18">
-    <chartFormat chart="17" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DE0D2D8-D990-4ED0-82DE-6B1F4CDBC130}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B144:C150" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="167"/>
-  </dataFields>
-  <chartFormats count="20">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1417BAD2-C242-4B18-87DF-217E21D718E7}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B91:C116" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -41355,20 +42979,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CEC92B3E-AFC4-4000-8FDC-9227B9F52DC7}" name="Table24" displayName="Table24" ref="B1:L201" totalsRowCount="1" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CEC92B3E-AFC4-4000-8FDC-9227B9F52DC7}" name="Table24" displayName="Table24" ref="B1:L201" totalsRowCount="1" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76">
   <autoFilter ref="B1:L200" xr:uid="{CEC92B3E-AFC4-4000-8FDC-9227B9F52DC7}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2884DEA2-E346-4E78-9924-EA3C7602BA0A}" name="ID Number" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{53715CFE-2D34-4099-ABBA-78394DF3C3C3}" name="Date" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{2884DEA2-E346-4E78-9924-EA3C7602BA0A}" name="ID Number" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{53715CFE-2D34-4099-ABBA-78394DF3C3C3}" name="Date" dataDxfId="72" totalsRowDxfId="71"/>
     <tableColumn id="3" xr3:uid="{9DAF185B-B454-4743-A0D7-4EBE87BFE521}" name="Product"/>
     <tableColumn id="4" xr3:uid="{08305321-3FC0-46C2-A6E0-54E126413901}" name="Region"/>
     <tableColumn id="5" xr3:uid="{BA6781D8-FD9C-4957-8459-02D37D05FAA3}" name="Sales Method"/>
-    <tableColumn id="6" xr3:uid="{D6FE140E-129E-4FAB-B829-A5B41291D723}" name="Price per unit" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{4C78D6FC-EDE8-42E8-9195-908A7DCA7D9E}" name="Cost per unit" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{AB56C22E-196B-4660-9A94-66F3E636EB4B}" name="Quantity" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{C8E35B57-AF00-4E41-B999-3EF37DB69A1D}" name="Revenues" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{B6346DA0-3371-4137-85C6-D64CD3D848E7}" name="Expenses" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{104D0994-F1E0-43DC-9DDC-9F98CEEFCCC3}" name="Profit" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="6" xr3:uid="{D6FE140E-129E-4FAB-B829-A5B41291D723}" name="Price per unit" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{4C78D6FC-EDE8-42E8-9195-908A7DCA7D9E}" name="Cost per unit" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{AB56C22E-196B-4660-9A94-66F3E636EB4B}" name="Quantity" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{C8E35B57-AF00-4E41-B999-3EF37DB69A1D}" name="Revenues" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{B6346DA0-3371-4137-85C6-D64CD3D848E7}" name="Expenses" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{104D0994-F1E0-43DC-9DDC-9F98CEEFCCC3}" name="Profit" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>SUM(J2-K2)</calculatedColumnFormula>
       <totalsRowFormula>SUM(L2:L200)</totalsRowFormula>
     </tableColumn>
@@ -41378,19 +43002,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0295E68C-4A0F-49FF-97A4-655E4B612830}" name="Table2" displayName="Table2" ref="B2:K201" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0295E68C-4A0F-49FF-97A4-655E4B612830}" name="Table2" displayName="Table2" ref="B2:K201" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57">
   <autoFilter ref="B2:K201" xr:uid="{0295E68C-4A0F-49FF-97A4-655E4B612830}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{597B5C6C-9994-4E88-BBC4-DD5E656EB4C5}" name="ID Number" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{E18A4096-15AD-439F-8DC3-09AA05B2D7B1}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{597B5C6C-9994-4E88-BBC4-DD5E656EB4C5}" name="ID Number" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{E18A4096-15AD-439F-8DC3-09AA05B2D7B1}" name="Date" dataDxfId="53" totalsRowDxfId="52"/>
     <tableColumn id="3" xr3:uid="{FAED3382-522D-4FBD-B299-EBA932ABE4F7}" name="Product"/>
     <tableColumn id="4" xr3:uid="{4B7B2C89-1980-4573-AAEF-B8AD78991994}" name="Region"/>
     <tableColumn id="5" xr3:uid="{E1FA9655-9009-4C90-84FA-BF604A875CCD}" name="Sales Method"/>
-    <tableColumn id="6" xr3:uid="{A6DF76DC-6AAA-4F43-B33C-555F10140688}" name="Price per unit" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{07FEDBE6-8252-43AB-82D3-EB7F448C8E64}" name="Cost per unit" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{B0814E76-8225-4022-AD51-EDF0547337F0}" name="Quantity" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{11CB9D80-3493-468A-A238-1684B8D248B6}" name="Revenues" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{18948BD7-1371-418F-82DF-EC58FD6F461E}" name="Expenses" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A6DF76DC-6AAA-4F43-B33C-555F10140688}" name="Price per unit" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{07FEDBE6-8252-43AB-82D3-EB7F448C8E64}" name="Cost per unit" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{B0814E76-8225-4022-AD51-EDF0547337F0}" name="Quantity" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{11CB9D80-3493-468A-A238-1684B8D248B6}" name="Revenues" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{18948BD7-1371-418F-82DF-EC58FD6F461E}" name="Expenses" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -41696,7 +43320,7 @@
   <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -41889,7 +43513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1885EE-AEC1-4BBE-937A-C71122AC9CC0}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56411,8 +58035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74E90D-217E-4EF0-934D-D660707C7B7A}">
   <dimension ref="A1:K628"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159:C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
